--- a/data/NREL-118/Power_VRES.xlsx
+++ b/data/NREL-118/Power_VRES.xlsx
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="F100" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G100" s="14" t="n">
         <v>69</v>
@@ -7969,7 +7969,7 @@
         </is>
       </c>
       <c r="F101" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G101" s="14" t="n">
         <v>69</v>
@@ -8042,7 +8042,7 @@
         </is>
       </c>
       <c r="F102" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G102" s="14" t="n">
         <v>70.84</v>
@@ -8115,7 +8115,7 @@
         </is>
       </c>
       <c r="F103" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G103" s="14" t="n">
         <v>70.84</v>
@@ -8188,7 +8188,7 @@
         </is>
       </c>
       <c r="F104" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G104" s="14" t="n">
         <v>75.44</v>
@@ -8261,7 +8261,7 @@
         </is>
       </c>
       <c r="F105" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G105" s="14" t="n">
         <v>112.72852</v>
@@ -8334,7 +8334,7 @@
         </is>
       </c>
       <c r="F106" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G106" s="14" t="n">
         <v>112.72852</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="F107" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G107" s="14" t="n">
         <v>112.72852</v>
@@ -8480,7 +8480,7 @@
         </is>
       </c>
       <c r="F108" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G108" s="14" t="n">
         <v>74.59084</v>
@@ -8553,7 +8553,7 @@
         </is>
       </c>
       <c r="F109" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G109" s="14" t="n">
         <v>74.59176000000001</v>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="F110" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G110" s="14" t="n">
         <v>42.96400000000001</v>
@@ -8699,7 +8699,7 @@
         </is>
       </c>
       <c r="F111" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G111" s="14" t="n">
         <v>101.2</v>
@@ -8772,7 +8772,7 @@
         </is>
       </c>
       <c r="F112" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G112" s="14" t="n">
         <v>128.8</v>
@@ -8845,7 +8845,7 @@
         </is>
       </c>
       <c r="F113" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G113" s="14" t="n">
         <v>0.7360000000000001</v>
@@ -8918,7 +8918,7 @@
         </is>
       </c>
       <c r="F114" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G114" s="14" t="n">
         <v>1.242</v>
@@ -8991,7 +8991,7 @@
         </is>
       </c>
       <c r="F115" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G115" s="14" t="n">
         <v>4.278</v>
@@ -9064,7 +9064,7 @@
         </is>
       </c>
       <c r="F116" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G116" s="14" t="n">
         <v>59.65648000000001</v>
@@ -9137,7 +9137,7 @@
         </is>
       </c>
       <c r="F117" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G117" s="14" t="n">
         <v>70.45084</v>
@@ -9210,7 +9210,7 @@
         </is>
       </c>
       <c r="F118" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G118" s="14" t="n">
         <v>70.45084</v>
@@ -9283,7 +9283,7 @@
         </is>
       </c>
       <c r="F119" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G119" s="14" t="n">
         <v>70.45084</v>
@@ -9356,7 +9356,7 @@
         </is>
       </c>
       <c r="F120" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G120" s="14" t="n">
         <v>68.32196</v>
@@ -9429,7 +9429,7 @@
         </is>
       </c>
       <c r="F121" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G121" s="14" t="n">
         <v>68.32196</v>
@@ -9502,7 +9502,7 @@
         </is>
       </c>
       <c r="F122" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G122" s="14" t="n">
         <v>26.35432</v>
@@ -9575,7 +9575,7 @@
         </is>
       </c>
       <c r="F123" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G123" s="14" t="n">
         <v>26.35432</v>
@@ -9648,7 +9648,7 @@
         </is>
       </c>
       <c r="F124" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G124" s="14" t="n">
         <v>26.35432</v>
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="F125" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G125" s="14" t="n">
         <v>102.67752</v>
@@ -9794,7 +9794,7 @@
         </is>
       </c>
       <c r="F126" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G126" s="14" t="n">
         <v>102.67752</v>
@@ -9867,7 +9867,7 @@
         </is>
       </c>
       <c r="F127" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G127" s="14" t="n">
         <v>0.09200000000000001</v>
@@ -9940,7 +9940,7 @@
         </is>
       </c>
       <c r="F128" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G128" s="14" t="n">
         <v>0.368</v>
@@ -10013,7 +10013,7 @@
         </is>
       </c>
       <c r="F129" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G129" s="14" t="n">
         <v>0.4416</v>
@@ -10086,7 +10086,7 @@
         </is>
       </c>
       <c r="F130" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G130" s="14" t="n">
         <v>10.233988</v>
@@ -10159,7 +10159,7 @@
         </is>
       </c>
       <c r="F131" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G131" s="14" t="n">
         <v>10.233988</v>
@@ -10232,7 +10232,7 @@
         </is>
       </c>
       <c r="F132" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G132" s="14" t="n">
         <v>0.2208</v>
@@ -10305,7 +10305,7 @@
         </is>
       </c>
       <c r="F133" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G133" s="14" t="n">
         <v>9.8992</v>
@@ -10378,7 +10378,7 @@
         </is>
       </c>
       <c r="F134" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G134" s="14" t="n">
         <v>43.332</v>
@@ -10451,7 +10451,7 @@
         </is>
       </c>
       <c r="F135" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G135" s="14" t="n">
         <v>2.2632</v>
@@ -10524,7 +10524,7 @@
         </is>
       </c>
       <c r="F136" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G136" s="14" t="n">
         <v>2.2632</v>
@@ -10597,7 +10597,7 @@
         </is>
       </c>
       <c r="F137" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G137" s="14" t="n">
         <v>89.17560000000002</v>
@@ -10670,7 +10670,7 @@
         </is>
       </c>
       <c r="F138" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G138" s="14" t="n">
         <v>88.5592</v>
@@ -10743,7 +10743,7 @@
         </is>
       </c>
       <c r="F139" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G139" s="14" t="n">
         <v>88.5592</v>
@@ -10816,7 +10816,7 @@
         </is>
       </c>
       <c r="F140" s="13" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="G140" s="14" t="n">
         <v>102.9756</v>
